--- a/inputTestData.xlsx
+++ b/inputTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Nehal</t>
   </si>
@@ -40,6 +40,30 @@
   </si>
   <si>
     <t>Tfhfk</t>
+  </si>
+  <si>
+    <t>kldvdfk</t>
+  </si>
+  <si>
+    <t>sdlfkd</t>
+  </si>
+  <si>
+    <t>jkkvbjk</t>
+  </si>
+  <si>
+    <t>bknkml,.</t>
+  </si>
+  <si>
+    <t>bjkl;'</t>
+  </si>
+  <si>
+    <t>jkl;</t>
+  </si>
+  <si>
+    <t>bnm,./</t>
+  </si>
+  <si>
+    <t>bnm,.</t>
   </si>
 </sst>
 </file>
@@ -384,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -398,7 +422,7 @@
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +441,11 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -436,6 +463,29 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
